--- a/medicine/Psychotrope/Café_glacé/Café_glacé.xlsx
+++ b/medicine/Psychotrope/Café_glacé/Café_glacé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_glac%C3%A9</t>
+          <t>Café_glacé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le café glacé[1] est une recette répandue de boisson au café, à base de café froid ou chaud servi glacé (avec des glaçons), variante des café frappé, affogato (avec glace à la vanille), café liégeois (crème glacée et crème chantilly), ice cappuccino, ou thé glacé[2]...
+Le café glacé est une recette répandue de boisson au café, à base de café froid ou chaud servi glacé (avec des glaçons), variante des café frappé, affogato (avec glace à la vanille), café liégeois (crème glacée et crème chantilly), ice cappuccino, ou thé glacé...
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_glac%C3%A9</t>
+          <t>Café_glacé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mazagran, une boisson au café froide et sucrée originaire d'Algérie[3] (dans la ville de Mostaganem) vers 1840, a été décrite par les habitants comme "le café glacé original"[4]. Il est préparé avec du sirop de café et de l'eau froide[4].
-Cette recette cosmopolite rafraîchissante de café glacé, consommée généralement l'été dans tous les pays du monde, peut être préparée de plusieurs façons[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mazagran, une boisson au café froide et sucrée originaire d'Algérie (dans la ville de Mostaganem) vers 1840, a été décrite par les habitants comme "le café glacé original". Il est préparé avec du sirop de café et de l'eau froide.
+Cette recette cosmopolite rafraîchissante de café glacé, consommée généralement l'été dans tous les pays du monde, peut être préparée de plusieurs façons :
 Refroidi : servir un café chaud avec des glaçons.
-Infusion à froid : verser de l'eau froide sur du café moulu et laisser infuser plusieurs heures au frais[6],[7].
-Ajout de glace : servir du café chaud broyé avec des glaçons (café frappé au mixeur ou au shaker) ou mélangé avec de la crème glacée, avec par exemple les affogato (café expresso avec de la glace à la vanille) ou café liégeois (avec crème glacée et crème chantilly)[8],[9]...
+Infusion à froid : verser de l'eau froide sur du café moulu et laisser infuser plusieurs heures au frais,.
+Ajout de glace : servir du café chaud broyé avec des glaçons (café frappé au mixeur ou au shaker) ou mélangé avec de la crème glacée, avec par exemple les affogato (café expresso avec de la glace à la vanille) ou café liégeois (avec crème glacée et crème chantilly),...
 La glace atténue le gout du café avec des arômes plus doux ou plus veloutés. Le café glacé peut être amélioré et parfumé entre autres avec des sirops, cacao, sucre de canne, caramel, vanille, lait d'amande, citron, fleur d'oranger, épices (cannelle, badiane, baies...), sirop d'érable, lait, crème, lait concentré sucré (café glacé vietnamien), feuilles de menthe fraîche, confiseries, liqueur de café... Il est vendu en canette au rayon frais dans certains pays.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_glac%C3%A9</t>
+          <t>Café_glacé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Affogato
